--- a/READ/READ.xlsx
+++ b/READ/READ.xlsx
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K7" t="n">
         <v>29</v>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="8">
@@ -1203,7 +1203,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K9" t="n">
         <v>29</v>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -1253,7 +1253,7 @@
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="10">
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
         <v>35</v>
@@ -1392,7 +1392,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>32</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="V11" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="12">

--- a/READ/READ.xlsx
+++ b/READ/READ.xlsx
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K7" t="n">
         <v>29</v>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="8">
@@ -1203,7 +1203,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K9" t="n">
         <v>29</v>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -1253,7 +1253,7 @@
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="10">
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
         <v>35</v>
@@ -1392,7 +1392,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="V11" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="12">

--- a/READ/READ.xlsx
+++ b/READ/READ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,10 +539,25 @@
           <t>FTES</t>
         </is>
       </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Potential FTEF</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>FTEF</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Efficiency</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -556,7 +571,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Fifteen Week B M-F Session (1/31/2022 - 5/20/2022)</t>
+          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -564,31 +579,19 @@
           <t>32236</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>12:00pm</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1:00pm</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Tu</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>LA105</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K2" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -602,13 +605,13 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>20</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -631,16 +634,25 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>In Person</t>
+          <t>Online Course</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.9</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -654,24 +666,36 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>30656</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+          <t>31824</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9:30am</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10:45am</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Tu Th</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>In Person</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="K3" t="n">
         <v>29</v>
@@ -688,18 +712,18 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>21</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Belroy, B</t>
+          <t>Paige, M</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -715,18 +739,23 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>Online Course</t>
-        </is>
-      </c>
+      <c r="U3" t="inlineStr"/>
       <c r="V3" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -740,39 +769,27 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>30659</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3:00pm</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>4:30pm</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Tu</t>
-        </is>
-      </c>
+          <t>30656</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>REMOTE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -781,23 +798,23 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Closed</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Helberg, B</t>
+          <t>Belroy, B</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -815,16 +832,25 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>Remote Course</t>
+          <t>Online Course</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
+      </c>
+      <c r="W4" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -838,7 +864,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Fifteen Week A M-F Session (1/10/2022 - 4/29/2022)</t>
+          <t>Fifteen Week A M-F Session (1/9/2023 - 4/28/2023)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -855,7 +881,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
         <v>29</v>
@@ -872,13 +898,13 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>27</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -905,12 +931,21 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.2</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -924,7 +959,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Fifteen Week B M-F Session (1/31/2022 - 5/20/2022)</t>
+          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -941,7 +976,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="K6" t="n">
         <v>29</v>
@@ -958,17 +993,13 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Wait List</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -995,12 +1026,21 @@
         </is>
       </c>
       <c r="V6" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="W6" t="n">
         <v>2.9</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1014,12 +1054,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Fifteen Week B M-F Session (1/31/2022 - 5/20/2022)</t>
+          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>31824</t>
+          <t>30186</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -1031,7 +1071,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>29</v>
@@ -1048,18 +1088,18 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>29</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Paige, M</t>
+          <t>Smith, H</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1081,12 +1121,21 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>2.1</v>
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1100,12 +1149,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Fifteen Week B M-F Session (1/31/2022 - 5/20/2022)</t>
+          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>30186</t>
+          <t>30655</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -1117,7 +1166,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
         <v>29</v>
@@ -1134,18 +1183,18 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>27</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Smith, H</t>
+          <t>Paige, M</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1167,12 +1216,21 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.2</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1186,24 +1244,36 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Fifteen Week B M-F Session (1/31/2022 - 5/20/2022)</t>
+          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>30655</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+          <t>30657</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>12:30pm</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2:00pm</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Tu Th</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>In Person</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>29</v>
@@ -1220,13 +1290,13 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>29</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1247,18 +1317,23 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>Online Course</t>
-        </is>
-      </c>
+      <c r="U9" t="inlineStr"/>
       <c r="V9" t="n">
-        <v>1.7</v>
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1272,12 +1347,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Fifteen Week B M-F Session (1/31/2022 - 5/20/2022)</t>
+          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>30657</t>
+          <t>30660</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -1289,7 +1364,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
         <v>29</v>
@@ -1306,18 +1381,18 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Paige, M</t>
+          <t>Belroy, B</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1339,12 +1414,21 @@
         </is>
       </c>
       <c r="V10" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1358,27 +1442,39 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Fifteen Week B M-F Session (1/31/2022 - 5/20/2022)</t>
+          <t>Fifteen Week B2 Tuesday Session (1/31/2023 - 5/16/2023)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>30660</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+          <t>30659</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>12:30pm</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2:00pm</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Tu</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1387,18 +1483,18 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>29</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1421,16 +1517,25 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>Online Course</t>
+          <t>Hybrid Course</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>0.4</v>
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1444,7 +1549,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1461,7 +1566,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K12" t="n">
         <v>29</v>
@@ -1478,13 +1583,13 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1511,12 +1616,21 @@
         </is>
       </c>
       <c r="V12" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
+      </c>
+      <c r="W12" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1530,7 +1644,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Fifteen Week B M-F Session (1/31/2022 - 5/20/2022)</t>
+          <t>Nine Week A M-F Session (1/9/2023 - 3/10/2023)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1547,7 +1661,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K13" t="n">
         <v>29</v>
@@ -1564,13 +1678,13 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1597,12 +1711,21 @@
         </is>
       </c>
       <c r="V13" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
+      </c>
+      <c r="W13" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>9.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1616,7 +1739,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Fifteen Week B M-F Session (1/31/2022 - 5/20/2022)</t>
+          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1633,7 +1756,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K14" t="n">
         <v>29</v>
@@ -1650,13 +1773,13 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>19</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -1683,12 +1806,21 @@
         </is>
       </c>
       <c r="V14" t="n">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="W14" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1702,7 +1834,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Fifteen Week B M-F Session (1/31/2022 - 5/20/2022)</t>
+          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1719,7 +1851,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K15" t="n">
         <v>29</v>
@@ -1736,13 +1868,13 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -1769,12 +1901,21 @@
         </is>
       </c>
       <c r="V15" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
+      </c>
+      <c r="W15" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1788,7 +1929,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Fifteen Week B M-F Session (1/31/2022 - 5/20/2022)</t>
+          <t>Nine Week B M-F Session (3/20/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1805,7 +1946,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K16" t="n">
         <v>29</v>
@@ -1822,18 +1963,18 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>23</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Belroy, B</t>
+          <t>Helberg, B</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1855,7 +1996,119 @@
         </is>
       </c>
       <c r="V16" t="n">
-        <v>0.3</v>
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="W16" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>READ</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>READ 103</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Nine Week B7 T, Th Session (3/21/2023 - 5/18/2023)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>33249</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9:00am</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>11:50am</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Tu Th</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>In Person</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>29</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>STAFF</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="S17" t="n">
+        <v>54</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Books</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/READ/READ.xlsx
+++ b/READ/READ.xlsx
@@ -557,7 +557,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
         <v>29</v>
@@ -712,7 +712,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
@@ -741,7 +741,7 @@
       </c>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="W3" t="n">
         <v>2.9</v>
@@ -750,12 +750,12 @@
         <v>0.2</v>
       </c>
       <c r="Y3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K6" t="n">
         <v>29</v>
@@ -993,7 +993,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>17</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="W6" t="n">
         <v>2.9</v>
@@ -1035,12 +1035,12 @@
         <v>0.2</v>
       </c>
       <c r="Y6" t="n">
-        <v>4</v>
+        <v>6.000000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>29</v>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>28</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="W9" t="n">
         <v>2.9</v>
@@ -1328,12 +1328,12 @@
         <v>0.2</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K12" t="n">
         <v>29</v>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -1616,7 +1616,7 @@
         </is>
       </c>
       <c r="V12" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="W12" t="n">
         <v>2.9</v>
@@ -1625,12 +1625,12 @@
         <v>0.2</v>
       </c>
       <c r="Y12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K13" t="n">
         <v>29</v>
@@ -1678,7 +1678,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -1711,7 +1711,7 @@
         </is>
       </c>
       <c r="V13" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W13" t="n">
         <v>2.9</v>
@@ -1720,12 +1720,12 @@
         <v>0.2</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K14" t="n">
         <v>29</v>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>17</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
@@ -1806,7 +1806,7 @@
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="W14" t="n">
         <v>2.9</v>
@@ -1815,12 +1815,12 @@
         <v>0.2</v>
       </c>
       <c r="Y14" t="n">
-        <v>5</v>
+        <v>6.000000000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
         <v>29</v>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
@@ -1901,7 +1901,7 @@
         </is>
       </c>
       <c r="V15" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="W15" t="n">
         <v>2.9</v>
@@ -1910,12 +1910,12 @@
         <v>0.2</v>
       </c>
       <c r="Y15" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>STAFF</t>
+          <t>Williams, R</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
